--- a/data/Levee par commune Terrain_URM.xlsx
+++ b/data/Levee par commune Terrain_URM.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\resultat_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B8B587B-E174-41B1-8030-D2227A8BACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3A6F4-37A7-4396-ABBB-EDE82B16F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="6380" windowWidth="14400" windowHeight="7450" xr2:uid="{462BB4A9-99A0-49A8-9EF1-28FE18FDC3E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{462BB4A9-99A0-49A8-9EF1-28FE18FDC3E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Levee par commune" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -164,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -255,13 +252,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -270,49 +349,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -330,548 +370,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Parcelles_terrain_periode"/>
-      <sheetName val="Levee par commune"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Commune</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Levée terrain</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D3">
-            <v>1176</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D4">
-            <v>589</v>
-          </cell>
-          <cell r="M4" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D5">
-            <v>1025</v>
-          </cell>
-          <cell r="M5" t="str">
-            <v>Missirah</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D6">
-            <v>428</v>
-          </cell>
-          <cell r="M6" t="str">
-            <v>Netteboulou</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D7">
-            <v>648</v>
-          </cell>
-          <cell r="M7" t="str">
-            <v>Ballou</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D8">
-            <v>599</v>
-          </cell>
-          <cell r="M8" t="str">
-            <v>Gabou</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D9">
-            <v>75</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>Bandafassi</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D10">
-            <v>153</v>
-          </cell>
-          <cell r="M10" t="str">
-            <v>Fongolimbi</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D11">
-            <v>26</v>
-          </cell>
-          <cell r="M11" t="str">
-            <v>Dimboli</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D12">
-            <v>58</v>
-          </cell>
-          <cell r="M12" t="str">
-            <v>Bembou</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D13">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D14">
-            <v>127</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D15">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D16">
-            <v>229</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D17">
-            <v>231</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D18">
-            <v>210</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D19">
-            <v>179</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D20">
-            <v>466</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D21">
-            <v>106</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D22">
-            <v>202</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Ndoga Babacar</v>
-          </cell>
-          <cell r="D23">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D24">
-            <v>514</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D25">
-            <v>214</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D26">
-            <v>295</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D27">
-            <v>342</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D28">
-            <v>310</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D29">
-            <v>203</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D30">
-            <v>519</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D31">
-            <v>315</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D32">
-            <v>431</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D33">
-            <v>628</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D34">
-            <v>283</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D35">
-            <v>262</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D36">
-            <v>403</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D37">
-            <v>194</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D38">
-            <v>220</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D39">
-            <v>294</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D40">
-            <v>211</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D41">
-            <v>263</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>Bandafassi</v>
-          </cell>
-          <cell r="D42">
-            <v>148</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>Netteboulou</v>
-          </cell>
-          <cell r="D43">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>Missirah</v>
-          </cell>
-          <cell r="D44">
-            <v>161</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>Fongolimbi</v>
-          </cell>
-          <cell r="D45">
-            <v>236</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>Fongolimbi</v>
-          </cell>
-          <cell r="D46">
-            <v>367</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>Ballou</v>
-          </cell>
-          <cell r="D47">
-            <v>201</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>Fongolimbi</v>
-          </cell>
-          <cell r="D48">
-            <v>671</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>Ballou</v>
-          </cell>
-          <cell r="D49">
-            <v>415</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>Fongolimbi</v>
-          </cell>
-          <cell r="D50">
-            <v>126</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>Ballou</v>
-          </cell>
-          <cell r="D51">
-            <v>302</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>Dimboli</v>
-          </cell>
-          <cell r="D52">
-            <v>408</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>Ballou</v>
-          </cell>
-          <cell r="D53">
-            <v>218</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>Dimboli</v>
-          </cell>
-          <cell r="D54">
-            <v>778</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55" t="str">
-            <v>Ballou</v>
-          </cell>
-          <cell r="D55">
-            <v>197</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56" t="str">
-            <v>Dimboli</v>
-          </cell>
-          <cell r="D56">
-            <v>1727</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57" t="str">
-            <v>Ballou</v>
-          </cell>
-          <cell r="D57">
-            <v>246</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58" t="str">
-            <v>Gabou</v>
-          </cell>
-          <cell r="D58">
-            <v>623</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59" t="str">
-            <v>Dimboli</v>
-          </cell>
-          <cell r="D59">
-            <v>99</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60" t="str">
-            <v>Gabou</v>
-          </cell>
-          <cell r="D60">
-            <v>587</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61" t="str">
-            <v>Bembou</v>
-          </cell>
-          <cell r="D61">
-            <v>833</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62" t="str">
-            <v>Bembou</v>
-          </cell>
-          <cell r="D62">
-            <v>832</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63" t="str">
-            <v>Total</v>
-          </cell>
-          <cell r="D63">
-            <v>22148</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1174,190 +672,179 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B1" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M4, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C3" s="3">
         <v>5102</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>3845</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M5, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C4" s="3">
         <v>2400</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>2712</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M6, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C5" s="3">
         <v>2237</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>2492</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M7, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C6" s="3">
         <v>1579</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>1413</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M8, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C7" s="3">
         <v>1210</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>1474</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M9, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C8" s="3">
         <v>3543</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="7">
         <v>3565</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M10, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C9" s="3">
         <v>1400</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="7">
         <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M11, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C10" s="3">
         <v>3012</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="8">
         <v>2989</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
-        <f>SUMIF([1]Parcelles_terrain_periode!C:C, [1]Parcelles_terrain_periode!M12, [1]Parcelles_terrain_periode!D:D)</f>
+      <c r="C11" s="11">
         <v>1665</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16">
-        <f>SUM(C3:C11)</f>
+      <c r="C12" s="13">
         <v>22148</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>21090</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18">
-        <f>(C12*100)/70000</f>
+      <c r="C13" s="15">
         <v>31.64</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <f>(D12*100)/70000</f>
         <v>30.12857142857143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="A8:A11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/Levee par commune Terrain_URM.xlsx
+++ b/data/Levee par commune Terrain_URM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\resultat_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3A6F4-37A7-4396-ABBB-EDE82B16F314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1DE738-74D9-4978-AE3C-C71B0C231D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{462BB4A9-99A0-49A8-9EF1-28FE18FDC3E9}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Communes</t>
-  </si>
-  <si>
     <t>Total Parcelles Terrain</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Taux de réalisation en pourcentage</t>
+  </si>
+  <si>
+    <t>commune</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -705,10 +705,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>5102</v>
@@ -720,7 +720,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>2400</v>
@@ -732,7 +732,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>2237</v>
@@ -744,7 +744,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>1579</v>
@@ -756,7 +756,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>1210</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>3543</v>
@@ -782,7 +782,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>1400</v>
@@ -794,7 +794,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>3012</v>
@@ -806,7 +806,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11">
         <v>1665</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13">
         <v>22148</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="15">
         <v>31.64</v>

--- a/data/Levee par commune Terrain_URM.xlsx
+++ b/data/Levee par commune Terrain_URM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\resultat_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1DE738-74D9-4978-AE3C-C71B0C231D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CE785F-FDE9-4ABC-8418-90EB1A2634EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{462BB4A9-99A0-49A8-9EF1-28FE18FDC3E9}"/>
   </bookViews>
@@ -161,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,17 +196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -284,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,59 +290,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFE302E-BB96-49AC-BF75-833BC306CAED}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,168 +669,159 @@
     <col min="4" max="4" width="55.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5102</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3845</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>5102</v>
+        <v>2400</v>
       </c>
       <c r="D3" s="3">
-        <v>3845</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="A4" s="19"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>2400</v>
+        <v>2237</v>
       </c>
       <c r="D4" s="3">
-        <v>2712</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
-        <v>2237</v>
+        <v>1579</v>
       </c>
       <c r="D5" s="3">
-        <v>2492</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>1579</v>
+        <v>1210</v>
       </c>
       <c r="D6" s="3">
-        <v>1413</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
+      <c r="A7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>1210</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1474</v>
+        <v>3543</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3565</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="17"/>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>3543</v>
+        <v>1400</v>
       </c>
       <c r="D8" s="7">
-        <v>3565</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1500</v>
+        <v>3012</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2989</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3012</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2989</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1665</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1665</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C11" s="13">
         <v>22148</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D11" s="14">
         <v>21090</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C12" s="15">
         <v>31.64</v>
       </c>
-      <c r="D13" s="16">
-        <f>(D12*100)/70000</f>
+      <c r="D12" s="16">
+        <f>(D11*100)/70000</f>
         <v>30.12857142857143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
